--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS20-527/Notebook_Compiled_data/K20_Raman_averaged.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS20-527/Notebook_Compiled_data/K20_Raman_averaged.xlsx
@@ -1711,7 +1711,7 @@
       <c r="DD2" t="inlineStr"/>
       <c r="DE2" t="inlineStr"/>
       <c r="DF2" t="n">
-        <v>0.004832970503648978</v>
+        <v>0.004832970503648979</v>
       </c>
       <c r="DG2" t="n">
         <v>0.0003687115304388325</v>
@@ -1755,7 +1755,7 @@
         <v>0.0001636821790030073</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.004832970503648978</v>
+        <v>0.004832970503648979</v>
       </c>
       <c r="DW2" t="n">
         <v>0.0003687115304388325</v>
@@ -1815,7 +1815,7 @@
         <v>70.50072994865353</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00323854315347735</v>
+        <v>0.003238543153477349</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0.1277471358909658</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.09796047447211081</v>
+        <v>0.09796047447211083</v>
       </c>
       <c r="FL2" t="n">
         <v>0.2586991369902635</v>
@@ -2314,10 +2314,10 @@
         <v>1.3893404978127</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.01748610600565654</v>
+        <v>0.01748610600565653</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.04330182253267002</v>
+        <v>0.04330182253267001</v>
       </c>
       <c r="EK3" t="n">
         <v>0.002373694822749665</v>
@@ -2392,7 +2392,7 @@
         <v>0.01086755374164359</v>
       </c>
       <c r="FQ3" t="n">
-        <v>5.590195512312427e-06</v>
+        <v>5.590195512312428e-06</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0.0002171090930033541</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.03076061906781654</v>
+        <v>0.03076061906781653</v>
       </c>
       <c r="EC4" t="n">
         <v>0.0001860388314832264</v>
@@ -2834,7 +2834,7 @@
         <v>45.31959509720662</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.03076061906776445</v>
+        <v>0.03076061906776444</v>
       </c>
       <c r="EF4" t="n">
         <v>110.0439629918911</v>
@@ -3319,7 +3319,7 @@
         <v>0.002657140020052187</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.009165151389911469</v>
+        <v>0.009165151389911471</v>
       </c>
       <c r="DO5" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0.002657140020052187</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.04363865180453827</v>
+        <v>0.04363865180453826</v>
       </c>
       <c r="EC5" t="n">
         <v>0.002003255814079039</v>
@@ -3366,7 +3366,7 @@
         <v>155.8449420730669</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.04363865180453827</v>
+        <v>0.04363865180453826</v>
       </c>
       <c r="EF5" t="n">
         <v>432.9609650333171</v>
@@ -3381,10 +3381,10 @@
         <v>0.03909668415009844</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01642036681494803</v>
+        <v>0.01642036681494804</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02427342317049297</v>
+        <v>0.02427342317049296</v>
       </c>
       <c r="EL5" t="n">
         <v>0.001984537762946304</v>
@@ -3833,7 +3833,7 @@
         <v>9.35129521204048e-07</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.007210467132182745</v>
+        <v>0.007210467132182746</v>
       </c>
       <c r="DK6" t="n">
         <v>0.0002304850791961425</v>
@@ -3862,7 +3862,7 @@
         <v>0.002857076527787342</v>
       </c>
       <c r="DU6" t="n">
-        <v>5.52022941336663e-05</v>
+        <v>5.520229413366629e-05</v>
       </c>
       <c r="DV6" t="n">
         <v>0.00368009754341232</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.07332998605063307</v>
+        <v>0.07332998605063305</v>
       </c>
       <c r="ES6" t="n">
         <v>0.009532076860937745</v>
@@ -3958,7 +3958,7 @@
         <v>1.983760221304842</v>
       </c>
       <c r="FE6" t="n">
-        <v>42.18958180234007</v>
+        <v>42.18958180234006</v>
       </c>
       <c r="FF6" t="n">
         <v>1.882053819896045</v>
@@ -3973,7 +3973,7 @@
         <v>0.0139454484470955</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.06750483955959083</v>
+        <v>0.06750483955959084</v>
       </c>
       <c r="FM6" t="n">
         <v>0.0002145247470159356</v>
@@ -16079,7 +16079,7 @@
         <v>0.002179254883697967</v>
       </c>
       <c r="DN34" t="n">
-        <v>0.07544534445544122</v>
+        <v>0.07544534445544124</v>
       </c>
       <c r="DO34" t="n">
         <v>0</v>
@@ -16138,13 +16138,13 @@
         <v>0.7585899050411115</v>
       </c>
       <c r="EI34" t="n">
-        <v>0.03978111779819275</v>
+        <v>0.03978111779819276</v>
       </c>
       <c r="EJ34" t="n">
         <v>0.02235448469364748</v>
       </c>
       <c r="EK34" t="n">
-        <v>0.002801861622381327</v>
+        <v>0.002801861622381328</v>
       </c>
       <c r="EL34" t="n">
         <v>0.004613231536422408</v>
@@ -16156,7 +16156,7 @@
         <v>0.002766349453855479</v>
       </c>
       <c r="EO34" t="n">
-        <v>84.99778839562003</v>
+        <v>84.99778839562005</v>
       </c>
       <c r="EP34" t="n">
         <v>0.007754067145160279</v>
@@ -16210,7 +16210,7 @@
         <v>0.0239874842117029</v>
       </c>
       <c r="FM34" t="n">
-        <v>0.0003249345407530975</v>
+        <v>0.0003249345407530976</v>
       </c>
       <c r="FN34" t="n">
         <v>0.005837556812703111</v>
@@ -16615,7 +16615,7 @@
       <c r="DD35" t="inlineStr"/>
       <c r="DE35" t="inlineStr"/>
       <c r="DF35" t="n">
-        <v>0.007195608131690942</v>
+        <v>0.007195608131690943</v>
       </c>
       <c r="DG35" t="n">
         <v>0.01190453766005759</v>
@@ -16653,7 +16653,7 @@
       <c r="DR35" t="inlineStr"/>
       <c r="DS35" t="inlineStr"/>
       <c r="DT35" t="n">
-        <v>0.007195608131690942</v>
+        <v>0.007195608131690943</v>
       </c>
       <c r="DU35" t="n">
         <v>0.01190453766005759</v>
@@ -17223,7 +17223,7 @@
         <v>0.006568974226111232</v>
       </c>
       <c r="EF36" t="n">
-        <v>9.623457155447099</v>
+        <v>9.623457155447101</v>
       </c>
       <c r="EG36" t="n">
         <v>0.01708252116098879</v>
@@ -17685,7 +17685,7 @@
         <v>0.01895480443921532</v>
       </c>
       <c r="DL37" t="n">
-        <v>3.270235687701335e-06</v>
+        <v>3.270235687701336e-06</v>
       </c>
       <c r="DM37" t="n">
         <v>0.01900360475320047</v>
@@ -17747,7 +17747,7 @@
         <v>0.0594836868164027</v>
       </c>
       <c r="EH37" t="n">
-        <v>0.3571006005535773</v>
+        <v>0.3571006005535772</v>
       </c>
       <c r="EI37" t="n">
         <v>0.2933798310125425</v>

--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS20-527/Notebook_Compiled_data/K20_Raman_averaged.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS20-527/Notebook_Compiled_data/K20_Raman_averaged.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GL39"/>
+  <dimension ref="A1:GK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1370,35 +1370,30 @@
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>Name_on_SEM_Raman_STD</t>
+          <t>Notes regarding SEM matching_Raman_STD</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>Notes regarding SEM matching_Raman_STD</t>
+          <t>EBSD_simple_name_Raman_STD</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>EBSD_simple_name_Raman_STD</t>
+          <t>EBSD_grainID_Raman_STD</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>EBSD_grainID_Raman_STD</t>
+          <t>EBSDname+grainID_Raman_STD</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>EBSDname+grainID_Raman_STD</t>
+          <t>EBSD_comment_Raman_STD</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>EBSD_comment_Raman_STD</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>averaged?</t>
         </is>
@@ -1711,7 +1706,7 @@
       <c r="DD2" t="inlineStr"/>
       <c r="DE2" t="inlineStr"/>
       <c r="DF2" t="n">
-        <v>0.004832970503648979</v>
+        <v>0.004832970503648978</v>
       </c>
       <c r="DG2" t="n">
         <v>0.0003687115304388325</v>
@@ -1755,7 +1750,7 @@
         <v>0.0001636821790030073</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.004832970503648979</v>
+        <v>0.004832970503648978</v>
       </c>
       <c r="DW2" t="n">
         <v>0.0003687115304388325</v>
@@ -1815,7 +1810,7 @@
         <v>70.50072994865353</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.003238543153477349</v>
+        <v>0.00323854315347735</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1848,7 +1843,7 @@
         <v>0.1277471358909658</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.09796047447211083</v>
+        <v>0.09796047447211081</v>
       </c>
       <c r="FL2" t="n">
         <v>0.2586991369902635</v>
@@ -1905,8 +1900,7 @@
       <c r="GH2" t="inlineStr"/>
       <c r="GI2" t="inlineStr"/>
       <c r="GJ2" t="inlineStr"/>
-      <c r="GK2" t="inlineStr"/>
-      <c r="GL2" t="inlineStr">
+      <c r="GK2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2314,10 +2308,10 @@
         <v>1.3893404978127</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.01748610600565653</v>
+        <v>0.01748610600565654</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.04330182253267001</v>
+        <v>0.04330182253267002</v>
       </c>
       <c r="EK3" t="n">
         <v>0.002373694822749665</v>
@@ -2392,7 +2386,7 @@
         <v>0.01086755374164359</v>
       </c>
       <c r="FQ3" t="n">
-        <v>5.590195512312428e-06</v>
+        <v>5.590195512312427e-06</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2431,8 +2425,7 @@
       <c r="GH3" t="inlineStr"/>
       <c r="GI3" t="inlineStr"/>
       <c r="GJ3" t="inlineStr"/>
-      <c r="GK3" t="inlineStr"/>
-      <c r="GL3" t="inlineStr">
+      <c r="GK3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2825,7 +2818,7 @@
         <v>0.0002171090930033541</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.03076061906781653</v>
+        <v>0.03076061906781654</v>
       </c>
       <c r="EC4" t="n">
         <v>0.0001860388314832264</v>
@@ -2834,7 +2827,7 @@
         <v>45.31959509720662</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.03076061906776444</v>
+        <v>0.03076061906776445</v>
       </c>
       <c r="EF4" t="n">
         <v>110.0439629918911</v>
@@ -2975,8 +2968,7 @@
       <c r="GH4" t="inlineStr"/>
       <c r="GI4" t="inlineStr"/>
       <c r="GJ4" t="inlineStr"/>
-      <c r="GK4" t="inlineStr"/>
-      <c r="GL4" t="inlineStr">
+      <c r="GK4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3319,7 +3311,7 @@
         <v>0.002657140020052187</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.009165151389911471</v>
+        <v>0.009165151389911469</v>
       </c>
       <c r="DO5" t="n">
         <v>0</v>
@@ -3357,7 +3349,7 @@
         <v>0.002657140020052187</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.04363865180453826</v>
+        <v>0.04363865180453827</v>
       </c>
       <c r="EC5" t="n">
         <v>0.002003255814079039</v>
@@ -3366,7 +3358,7 @@
         <v>155.8449420730669</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.04363865180453826</v>
+        <v>0.04363865180453827</v>
       </c>
       <c r="EF5" t="n">
         <v>432.9609650333171</v>
@@ -3381,10 +3373,10 @@
         <v>0.03909668415009844</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01642036681494804</v>
+        <v>0.01642036681494803</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02427342317049296</v>
+        <v>0.02427342317049297</v>
       </c>
       <c r="EL5" t="n">
         <v>0.001984537762946304</v>
@@ -3495,8 +3487,7 @@
       <c r="GH5" t="inlineStr"/>
       <c r="GI5" t="inlineStr"/>
       <c r="GJ5" t="inlineStr"/>
-      <c r="GK5" t="inlineStr"/>
-      <c r="GL5" t="inlineStr">
+      <c r="GK5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3833,7 +3824,7 @@
         <v>9.35129521204048e-07</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.007210467132182746</v>
+        <v>0.007210467132182745</v>
       </c>
       <c r="DK6" t="n">
         <v>0.0002304850791961425</v>
@@ -3862,7 +3853,7 @@
         <v>0.002857076527787342</v>
       </c>
       <c r="DU6" t="n">
-        <v>5.520229413366629e-05</v>
+        <v>5.52022941336663e-05</v>
       </c>
       <c r="DV6" t="n">
         <v>0.00368009754341232</v>
@@ -3931,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.07332998605063305</v>
+        <v>0.07332998605063307</v>
       </c>
       <c r="ES6" t="n">
         <v>0.009532076860937745</v>
@@ -3958,7 +3949,7 @@
         <v>1.983760221304842</v>
       </c>
       <c r="FE6" t="n">
-        <v>42.18958180234006</v>
+        <v>42.18958180234007</v>
       </c>
       <c r="FF6" t="n">
         <v>1.882053819896045</v>
@@ -3973,7 +3964,7 @@
         <v>0.0139454484470955</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.06750483955959084</v>
+        <v>0.06750483955959083</v>
       </c>
       <c r="FM6" t="n">
         <v>0.0002145247470159356</v>
@@ -4027,8 +4018,7 @@
       <c r="GH6" t="inlineStr"/>
       <c r="GI6" t="inlineStr"/>
       <c r="GJ6" t="inlineStr"/>
-      <c r="GK6" t="inlineStr"/>
-      <c r="GL6" t="inlineStr">
+      <c r="GK6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4364,7 +4354,11 @@
           <t>K20_c001_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t>K20_c001_a1</t>
+        </is>
+      </c>
       <c r="DA7" t="inlineStr"/>
       <c r="DB7" t="inlineStr"/>
       <c r="DC7" t="inlineStr"/>
@@ -4453,8 +4447,7 @@
       <c r="GH7" t="inlineStr"/>
       <c r="GI7" t="inlineStr"/>
       <c r="GJ7" t="inlineStr"/>
-      <c r="GK7" t="inlineStr"/>
-      <c r="GL7" t="inlineStr">
+      <c r="GK7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4802,7 +4795,11 @@
           <t>K20_c002_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t>K20_c002_a1</t>
+        </is>
+      </c>
       <c r="DA8" t="inlineStr"/>
       <c r="DB8" t="inlineStr"/>
       <c r="DC8" t="inlineStr"/>
@@ -4891,8 +4888,7 @@
       <c r="GH8" t="inlineStr"/>
       <c r="GI8" t="inlineStr"/>
       <c r="GJ8" t="inlineStr"/>
-      <c r="GK8" t="inlineStr"/>
-      <c r="GL8" t="inlineStr">
+      <c r="GK8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -5240,7 +5236,11 @@
           <t>K20_c002_a1_FIB</t>
         </is>
       </c>
-      <c r="CZ9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr">
+        <is>
+          <t>K20_c002_a1</t>
+        </is>
+      </c>
       <c r="DA9" t="inlineStr"/>
       <c r="DB9" t="inlineStr"/>
       <c r="DC9" t="inlineStr"/>
@@ -5329,8 +5329,7 @@
       <c r="GH9" t="inlineStr"/>
       <c r="GI9" t="inlineStr"/>
       <c r="GJ9" t="inlineStr"/>
-      <c r="GK9" t="inlineStr"/>
-      <c r="GL9" t="inlineStr">
+      <c r="GK9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -5660,7 +5659,11 @@
           <t>K20_c003_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr">
+        <is>
+          <t>K20_c003_a1</t>
+        </is>
+      </c>
       <c r="DA10" t="inlineStr"/>
       <c r="DB10" t="inlineStr"/>
       <c r="DC10" t="inlineStr"/>
@@ -5861,8 +5864,7 @@
       <c r="GH10" t="inlineStr"/>
       <c r="GI10" t="inlineStr"/>
       <c r="GJ10" t="inlineStr"/>
-      <c r="GK10" t="inlineStr"/>
-      <c r="GL10" t="inlineStr">
+      <c r="GK10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6198,7 +6200,11 @@
           <t>K20_c004_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr">
+        <is>
+          <t>K20_c004_a1</t>
+        </is>
+      </c>
       <c r="DA11" t="inlineStr"/>
       <c r="DB11" t="inlineStr"/>
       <c r="DC11" t="inlineStr"/>
@@ -6287,8 +6293,7 @@
       <c r="GH11" t="inlineStr"/>
       <c r="GI11" t="inlineStr"/>
       <c r="GJ11" t="inlineStr"/>
-      <c r="GK11" t="inlineStr"/>
-      <c r="GL11" t="inlineStr">
+      <c r="GK11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -6630,7 +6635,11 @@
           <t>K20_c004_a2_FIB</t>
         </is>
       </c>
-      <c r="CZ12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr">
+        <is>
+          <t>K20_c004_a2</t>
+        </is>
+      </c>
       <c r="DA12" t="inlineStr"/>
       <c r="DB12" t="inlineStr"/>
       <c r="DC12" t="inlineStr"/>
@@ -6719,8 +6728,7 @@
       <c r="GH12" t="inlineStr"/>
       <c r="GI12" t="inlineStr"/>
       <c r="GJ12" t="inlineStr"/>
-      <c r="GK12" t="inlineStr"/>
-      <c r="GL12" t="inlineStr">
+      <c r="GK12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7056,7 +7064,11 @@
           <t>K20_c004_a3_FIC</t>
         </is>
       </c>
-      <c r="CZ13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr">
+        <is>
+          <t>K20_c004_a3</t>
+        </is>
+      </c>
       <c r="DA13" t="inlineStr"/>
       <c r="DB13" t="inlineStr"/>
       <c r="DC13" t="inlineStr"/>
@@ -7145,8 +7157,7 @@
       <c r="GH13" t="inlineStr"/>
       <c r="GI13" t="inlineStr"/>
       <c r="GJ13" t="inlineStr"/>
-      <c r="GK13" t="inlineStr"/>
-      <c r="GL13" t="inlineStr">
+      <c r="GK13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7482,7 +7493,11 @@
           <t>K20_c004_a3_FID</t>
         </is>
       </c>
-      <c r="CZ14" t="inlineStr"/>
+      <c r="CZ14" t="inlineStr">
+        <is>
+          <t>K20_c004_a3</t>
+        </is>
+      </c>
       <c r="DA14" t="inlineStr"/>
       <c r="DB14" t="inlineStr"/>
       <c r="DC14" t="inlineStr"/>
@@ -7571,8 +7586,7 @@
       <c r="GH14" t="inlineStr"/>
       <c r="GI14" t="inlineStr"/>
       <c r="GJ14" t="inlineStr"/>
-      <c r="GK14" t="inlineStr"/>
-      <c r="GL14" t="inlineStr">
+      <c r="GK14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7908,7 +7922,11 @@
           <t>K20_c004_a3_FIE</t>
         </is>
       </c>
-      <c r="CZ15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr">
+        <is>
+          <t>K20_c004_a3</t>
+        </is>
+      </c>
       <c r="DA15" t="inlineStr"/>
       <c r="DB15" t="inlineStr"/>
       <c r="DC15" t="inlineStr"/>
@@ -7997,8 +8015,7 @@
       <c r="GH15" t="inlineStr"/>
       <c r="GI15" t="inlineStr"/>
       <c r="GJ15" t="inlineStr"/>
-      <c r="GK15" t="inlineStr"/>
-      <c r="GL15" t="inlineStr">
+      <c r="GK15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -8340,7 +8357,11 @@
           <t>K20_c005_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr">
+        <is>
+          <t>K20_c005_a1</t>
+        </is>
+      </c>
       <c r="DA16" t="inlineStr"/>
       <c r="DB16" t="inlineStr"/>
       <c r="DC16" t="inlineStr"/>
@@ -8429,8 +8450,7 @@
       <c r="GH16" t="inlineStr"/>
       <c r="GI16" t="inlineStr"/>
       <c r="GJ16" t="inlineStr"/>
-      <c r="GK16" t="inlineStr"/>
-      <c r="GL16" t="inlineStr">
+      <c r="GK16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -8772,7 +8792,11 @@
           <t>K20_c005_a2_FIB</t>
         </is>
       </c>
-      <c r="CZ17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr">
+        <is>
+          <t>K20_c005_a2</t>
+        </is>
+      </c>
       <c r="DA17" t="inlineStr"/>
       <c r="DB17" t="inlineStr"/>
       <c r="DC17" t="inlineStr"/>
@@ -8861,8 +8885,7 @@
       <c r="GH17" t="inlineStr"/>
       <c r="GI17" t="inlineStr"/>
       <c r="GJ17" t="inlineStr"/>
-      <c r="GK17" t="inlineStr"/>
-      <c r="GL17" t="inlineStr">
+      <c r="GK17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -9198,7 +9221,11 @@
           <t>K20_c005_a3_FIC</t>
         </is>
       </c>
-      <c r="CZ18" t="inlineStr"/>
+      <c r="CZ18" t="inlineStr">
+        <is>
+          <t>K20_c005_a3</t>
+        </is>
+      </c>
       <c r="DA18" t="inlineStr"/>
       <c r="DB18" t="inlineStr"/>
       <c r="DC18" t="inlineStr"/>
@@ -9287,8 +9314,7 @@
       <c r="GH18" t="inlineStr"/>
       <c r="GI18" t="inlineStr"/>
       <c r="GJ18" t="inlineStr"/>
-      <c r="GK18" t="inlineStr"/>
-      <c r="GL18" t="inlineStr">
+      <c r="GK18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -9618,7 +9644,11 @@
           <t>K20_c006_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ19" t="inlineStr"/>
+      <c r="CZ19" t="inlineStr">
+        <is>
+          <t>K20_c006_a1</t>
+        </is>
+      </c>
       <c r="DA19" t="inlineStr"/>
       <c r="DB19" t="inlineStr"/>
       <c r="DC19" t="inlineStr"/>
@@ -9707,8 +9737,7 @@
       <c r="GH19" t="inlineStr"/>
       <c r="GI19" t="inlineStr"/>
       <c r="GJ19" t="inlineStr"/>
-      <c r="GK19" t="inlineStr"/>
-      <c r="GL19" t="inlineStr">
+      <c r="GK19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -10050,7 +10079,11 @@
           <t>K20_c007_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ20" t="inlineStr"/>
+      <c r="CZ20" t="inlineStr">
+        <is>
+          <t>K20_c007_a1</t>
+        </is>
+      </c>
       <c r="DA20" t="inlineStr"/>
       <c r="DB20" t="inlineStr"/>
       <c r="DC20" t="inlineStr"/>
@@ -10139,8 +10172,7 @@
       <c r="GH20" t="inlineStr"/>
       <c r="GI20" t="inlineStr"/>
       <c r="GJ20" t="inlineStr"/>
-      <c r="GK20" t="inlineStr"/>
-      <c r="GL20" t="inlineStr">
+      <c r="GK20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -10488,7 +10520,11 @@
           <t>K20_c007_a2_FIB</t>
         </is>
       </c>
-      <c r="CZ21" t="inlineStr"/>
+      <c r="CZ21" t="inlineStr">
+        <is>
+          <t>K20_c007_a2</t>
+        </is>
+      </c>
       <c r="DA21" t="inlineStr"/>
       <c r="DB21" t="inlineStr"/>
       <c r="DC21" t="inlineStr"/>
@@ -10577,8 +10613,7 @@
       <c r="GH21" t="inlineStr"/>
       <c r="GI21" t="inlineStr"/>
       <c r="GJ21" t="inlineStr"/>
-      <c r="GK21" t="inlineStr"/>
-      <c r="GL21" t="inlineStr">
+      <c r="GK21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -10914,7 +10949,11 @@
           <t>K20_c008_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ22" t="inlineStr"/>
+      <c r="CZ22" t="inlineStr">
+        <is>
+          <t>K20_c008_a1</t>
+        </is>
+      </c>
       <c r="DA22" t="inlineStr"/>
       <c r="DB22" t="inlineStr"/>
       <c r="DC22" t="inlineStr"/>
@@ -11003,8 +11042,7 @@
       <c r="GH22" t="inlineStr"/>
       <c r="GI22" t="inlineStr"/>
       <c r="GJ22" t="inlineStr"/>
-      <c r="GK22" t="inlineStr"/>
-      <c r="GL22" t="inlineStr">
+      <c r="GK22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -11346,7 +11384,11 @@
           <t>K20_c008_a2_FIB</t>
         </is>
       </c>
-      <c r="CZ23" t="inlineStr"/>
+      <c r="CZ23" t="inlineStr">
+        <is>
+          <t>K20_c008_a2</t>
+        </is>
+      </c>
       <c r="DA23" t="inlineStr"/>
       <c r="DB23" t="inlineStr"/>
       <c r="DC23" t="inlineStr"/>
@@ -11435,8 +11477,7 @@
       <c r="GH23" t="inlineStr"/>
       <c r="GI23" t="inlineStr"/>
       <c r="GJ23" t="inlineStr"/>
-      <c r="GK23" t="inlineStr"/>
-      <c r="GL23" t="inlineStr">
+      <c r="GK23" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -11778,7 +11819,11 @@
           <t>K20_c009_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ24" t="inlineStr"/>
+      <c r="CZ24" t="inlineStr">
+        <is>
+          <t>K20_c009_a1</t>
+        </is>
+      </c>
       <c r="DA24" t="inlineStr"/>
       <c r="DB24" t="inlineStr"/>
       <c r="DC24" t="inlineStr"/>
@@ -11867,8 +11912,7 @@
       <c r="GH24" t="inlineStr"/>
       <c r="GI24" t="inlineStr"/>
       <c r="GJ24" t="inlineStr"/>
-      <c r="GK24" t="inlineStr"/>
-      <c r="GL24" t="inlineStr">
+      <c r="GK24" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -12204,7 +12248,11 @@
           <t>K20_c009_a2_FIB</t>
         </is>
       </c>
-      <c r="CZ25" t="inlineStr"/>
+      <c r="CZ25" t="inlineStr">
+        <is>
+          <t>K20_c009_a2</t>
+        </is>
+      </c>
       <c r="DA25" t="inlineStr"/>
       <c r="DB25" t="inlineStr"/>
       <c r="DC25" t="inlineStr"/>
@@ -12293,8 +12341,7 @@
       <c r="GH25" t="inlineStr"/>
       <c r="GI25" t="inlineStr"/>
       <c r="GJ25" t="inlineStr"/>
-      <c r="GK25" t="inlineStr"/>
-      <c r="GL25" t="inlineStr">
+      <c r="GK25" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -12630,7 +12677,11 @@
           <t>K20_c010_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ26" t="inlineStr"/>
+      <c r="CZ26" t="inlineStr">
+        <is>
+          <t>K20_c010_a1</t>
+        </is>
+      </c>
       <c r="DA26" t="inlineStr"/>
       <c r="DB26" t="inlineStr"/>
       <c r="DC26" t="inlineStr"/>
@@ -12719,8 +12770,7 @@
       <c r="GH26" t="inlineStr"/>
       <c r="GI26" t="inlineStr"/>
       <c r="GJ26" t="inlineStr"/>
-      <c r="GK26" t="inlineStr"/>
-      <c r="GL26" t="inlineStr">
+      <c r="GK26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -13056,7 +13106,11 @@
           <t>K20_c010_a2_FIB</t>
         </is>
       </c>
-      <c r="CZ27" t="inlineStr"/>
+      <c r="CZ27" t="inlineStr">
+        <is>
+          <t>K20_c010_a2</t>
+        </is>
+      </c>
       <c r="DA27" t="inlineStr"/>
       <c r="DB27" t="inlineStr"/>
       <c r="DC27" t="inlineStr"/>
@@ -13145,8 +13199,7 @@
       <c r="GH27" t="inlineStr"/>
       <c r="GI27" t="inlineStr"/>
       <c r="GJ27" t="inlineStr"/>
-      <c r="GK27" t="inlineStr"/>
-      <c r="GL27" t="inlineStr">
+      <c r="GK27" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -13494,7 +13547,11 @@
           <t>K20_c011_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ28" t="inlineStr"/>
+      <c r="CZ28" t="inlineStr">
+        <is>
+          <t>K20_c011_a1</t>
+        </is>
+      </c>
       <c r="DA28" t="inlineStr"/>
       <c r="DB28" t="inlineStr"/>
       <c r="DC28" t="inlineStr"/>
@@ -13583,8 +13640,7 @@
       <c r="GH28" t="inlineStr"/>
       <c r="GI28" t="inlineStr"/>
       <c r="GJ28" t="inlineStr"/>
-      <c r="GK28" t="inlineStr"/>
-      <c r="GL28" t="inlineStr">
+      <c r="GK28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -13926,7 +13982,11 @@
           <t>K20_c014_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ29" t="inlineStr"/>
+      <c r="CZ29" t="inlineStr">
+        <is>
+          <t>K20_c014_a1</t>
+        </is>
+      </c>
       <c r="DA29" t="inlineStr"/>
       <c r="DB29" t="inlineStr"/>
       <c r="DC29" t="inlineStr"/>
@@ -14015,8 +14075,7 @@
       <c r="GH29" t="inlineStr"/>
       <c r="GI29" t="inlineStr"/>
       <c r="GJ29" t="inlineStr"/>
-      <c r="GK29" t="inlineStr"/>
-      <c r="GL29" t="inlineStr">
+      <c r="GK29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -14358,7 +14417,11 @@
           <t>K20_c015_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ30" t="inlineStr"/>
+      <c r="CZ30" t="inlineStr">
+        <is>
+          <t>K20_c015_a1</t>
+        </is>
+      </c>
       <c r="DA30" t="inlineStr"/>
       <c r="DB30" t="inlineStr"/>
       <c r="DC30" t="inlineStr"/>
@@ -14447,8 +14510,7 @@
       <c r="GH30" t="inlineStr"/>
       <c r="GI30" t="inlineStr"/>
       <c r="GJ30" t="inlineStr"/>
-      <c r="GK30" t="inlineStr"/>
-      <c r="GL30" t="inlineStr">
+      <c r="GK30" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -14764,7 +14826,11 @@
           <t>K20_c018_a2_FIB</t>
         </is>
       </c>
-      <c r="CZ31" t="inlineStr"/>
+      <c r="CZ31" t="inlineStr">
+        <is>
+          <t>K20_c018_a2</t>
+        </is>
+      </c>
       <c r="DA31" t="inlineStr"/>
       <c r="DB31" t="inlineStr"/>
       <c r="DC31" t="inlineStr"/>
@@ -14853,8 +14919,7 @@
       <c r="GH31" t="inlineStr"/>
       <c r="GI31" t="inlineStr"/>
       <c r="GJ31" t="inlineStr"/>
-      <c r="GK31" t="inlineStr"/>
-      <c r="GL31" t="inlineStr">
+      <c r="GK31" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -15184,7 +15249,11 @@
           <t>K20_c019_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ32" t="inlineStr"/>
+      <c r="CZ32" t="inlineStr">
+        <is>
+          <t>K20_c019_a1</t>
+        </is>
+      </c>
       <c r="DA32" t="inlineStr"/>
       <c r="DB32" t="inlineStr"/>
       <c r="DC32" t="inlineStr"/>
@@ -15273,8 +15342,7 @@
       <c r="GH32" t="inlineStr"/>
       <c r="GI32" t="inlineStr"/>
       <c r="GJ32" t="inlineStr"/>
-      <c r="GK32" t="inlineStr"/>
-      <c r="GL32" t="inlineStr">
+      <c r="GK32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -15610,7 +15678,11 @@
           <t>K20_c021_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ33" t="inlineStr"/>
+      <c r="CZ33" t="inlineStr">
+        <is>
+          <t>K20_c021_a1</t>
+        </is>
+      </c>
       <c r="DA33" t="inlineStr"/>
       <c r="DB33" t="inlineStr"/>
       <c r="DC33" t="inlineStr"/>
@@ -15699,8 +15771,7 @@
       <c r="GH33" t="inlineStr"/>
       <c r="GI33" t="inlineStr"/>
       <c r="GJ33" t="inlineStr"/>
-      <c r="GK33" t="inlineStr"/>
-      <c r="GL33" t="inlineStr">
+      <c r="GK33" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -16048,7 +16119,11 @@
           <t>K20_c024_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ34" t="inlineStr"/>
+      <c r="CZ34" t="inlineStr">
+        <is>
+          <t>K20_c024_a1</t>
+        </is>
+      </c>
       <c r="DA34" t="inlineStr"/>
       <c r="DB34" t="inlineStr"/>
       <c r="DC34" t="inlineStr"/>
@@ -16079,7 +16154,7 @@
         <v>0.002179254883697967</v>
       </c>
       <c r="DN34" t="n">
-        <v>0.07544534445544124</v>
+        <v>0.07544534445544122</v>
       </c>
       <c r="DO34" t="n">
         <v>0</v>
@@ -16138,13 +16213,13 @@
         <v>0.7585899050411115</v>
       </c>
       <c r="EI34" t="n">
-        <v>0.03978111779819276</v>
+        <v>0.03978111779819275</v>
       </c>
       <c r="EJ34" t="n">
         <v>0.02235448469364748</v>
       </c>
       <c r="EK34" t="n">
-        <v>0.002801861622381328</v>
+        <v>0.002801861622381327</v>
       </c>
       <c r="EL34" t="n">
         <v>0.004613231536422408</v>
@@ -16156,7 +16231,7 @@
         <v>0.002766349453855479</v>
       </c>
       <c r="EO34" t="n">
-        <v>84.99778839562005</v>
+        <v>84.99778839562003</v>
       </c>
       <c r="EP34" t="n">
         <v>0.007754067145160279</v>
@@ -16210,7 +16285,7 @@
         <v>0.0239874842117029</v>
       </c>
       <c r="FM34" t="n">
-        <v>0.0003249345407530976</v>
+        <v>0.0003249345407530975</v>
       </c>
       <c r="FN34" t="n">
         <v>0.005837556812703111</v>
@@ -16271,8 +16346,7 @@
       <c r="GH34" t="inlineStr"/>
       <c r="GI34" t="inlineStr"/>
       <c r="GJ34" t="inlineStr"/>
-      <c r="GK34" t="inlineStr"/>
-      <c r="GL34" t="inlineStr">
+      <c r="GK34" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -16608,14 +16682,18 @@
           <t>K20_c025_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ35" t="inlineStr"/>
+      <c r="CZ35" t="inlineStr">
+        <is>
+          <t>K20_c025_a1</t>
+        </is>
+      </c>
       <c r="DA35" t="inlineStr"/>
       <c r="DB35" t="inlineStr"/>
       <c r="DC35" t="inlineStr"/>
       <c r="DD35" t="inlineStr"/>
       <c r="DE35" t="inlineStr"/>
       <c r="DF35" t="n">
-        <v>0.007195608131690943</v>
+        <v>0.007195608131690942</v>
       </c>
       <c r="DG35" t="n">
         <v>0.01190453766005759</v>
@@ -16653,7 +16731,7 @@
       <c r="DR35" t="inlineStr"/>
       <c r="DS35" t="inlineStr"/>
       <c r="DT35" t="n">
-        <v>0.007195608131690943</v>
+        <v>0.007195608131690942</v>
       </c>
       <c r="DU35" t="n">
         <v>0.01190453766005759</v>
@@ -16825,8 +16903,7 @@
       <c r="GH35" t="inlineStr"/>
       <c r="GI35" t="inlineStr"/>
       <c r="GJ35" t="inlineStr"/>
-      <c r="GK35" t="inlineStr"/>
-      <c r="GL35" t="inlineStr">
+      <c r="GK35" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -17142,7 +17219,11 @@
           <t>K20_c026_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ36" t="inlineStr"/>
+      <c r="CZ36" t="inlineStr">
+        <is>
+          <t>K20_c026_a1</t>
+        </is>
+      </c>
       <c r="DA36" t="inlineStr"/>
       <c r="DB36" t="inlineStr"/>
       <c r="DC36" t="inlineStr"/>
@@ -17223,7 +17304,7 @@
         <v>0.006568974226111232</v>
       </c>
       <c r="EF36" t="n">
-        <v>9.623457155447101</v>
+        <v>9.623457155447099</v>
       </c>
       <c r="EG36" t="n">
         <v>0.01708252116098879</v>
@@ -17343,8 +17424,7 @@
       <c r="GH36" t="inlineStr"/>
       <c r="GI36" t="inlineStr"/>
       <c r="GJ36" t="inlineStr"/>
-      <c r="GK36" t="inlineStr"/>
-      <c r="GL36" t="inlineStr">
+      <c r="GK36" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -17660,7 +17740,11 @@
           <t>K20_c026_a2_FIB</t>
         </is>
       </c>
-      <c r="CZ37" t="inlineStr"/>
+      <c r="CZ37" t="inlineStr">
+        <is>
+          <t>K20_c026_a2</t>
+        </is>
+      </c>
       <c r="DA37" t="inlineStr"/>
       <c r="DB37" t="inlineStr"/>
       <c r="DC37" t="inlineStr"/>
@@ -17685,7 +17769,7 @@
         <v>0.01895480443921532</v>
       </c>
       <c r="DL37" t="n">
-        <v>3.270235687701336e-06</v>
+        <v>3.270235687701335e-06</v>
       </c>
       <c r="DM37" t="n">
         <v>0.01900360475320047</v>
@@ -17747,7 +17831,7 @@
         <v>0.0594836868164027</v>
       </c>
       <c r="EH37" t="n">
-        <v>0.3571006005535772</v>
+        <v>0.3571006005535773</v>
       </c>
       <c r="EI37" t="n">
         <v>0.2933798310125425</v>
@@ -17861,8 +17945,7 @@
       <c r="GH37" t="inlineStr"/>
       <c r="GI37" t="inlineStr"/>
       <c r="GJ37" t="inlineStr"/>
-      <c r="GK37" t="inlineStr"/>
-      <c r="GL37" t="inlineStr">
+      <c r="GK37" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -18204,7 +18287,11 @@
           <t>K20_c027_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ38" t="inlineStr"/>
+      <c r="CZ38" t="inlineStr">
+        <is>
+          <t>K20_c027_a1</t>
+        </is>
+      </c>
       <c r="DA38" t="inlineStr"/>
       <c r="DB38" t="inlineStr"/>
       <c r="DC38" t="inlineStr"/>
@@ -18293,8 +18380,7 @@
       <c r="GH38" t="inlineStr"/>
       <c r="GI38" t="inlineStr"/>
       <c r="GJ38" t="inlineStr"/>
-      <c r="GK38" t="inlineStr"/>
-      <c r="GL38" t="inlineStr">
+      <c r="GK38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -18636,7 +18722,11 @@
           <t>K20_c028_a1_FIA</t>
         </is>
       </c>
-      <c r="CZ39" t="inlineStr"/>
+      <c r="CZ39" t="inlineStr">
+        <is>
+          <t>K20_c028_a1</t>
+        </is>
+      </c>
       <c r="DA39" t="inlineStr"/>
       <c r="DB39" t="inlineStr"/>
       <c r="DC39" t="inlineStr"/>
@@ -18725,8 +18815,7 @@
       <c r="GH39" t="inlineStr"/>
       <c r="GI39" t="inlineStr"/>
       <c r="GJ39" t="inlineStr"/>
-      <c r="GK39" t="inlineStr"/>
-      <c r="GL39" t="inlineStr">
+      <c r="GK39" t="inlineStr">
         <is>
           <t>No</t>
         </is>
